--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_09-57.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_09-57.xlsx
@@ -30,6 +30,72 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>PERLOC 40MG 14 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7816:0</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>Monday, 5 January, 2026 9:57 AM</t>
@@ -214,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -234,14 +300,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -611,52 +680,400 @@
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>1</v>
+      </c>
+      <c t="s" r="B4" s="7">
+        <v>7</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c t="s" r="H4" s="8">
+        <v>8</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>114</v>
+      </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="7"/>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c t="s" r="A6" s="11">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c t="s" r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c t="s" r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9">
+        <v>137</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c t="s" r="B6" s="7">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c t="s" r="H6" s="8">
+        <v>8</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9">
+        <v>160</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c t="s" r="B7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c t="s" r="H7" s="8">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9">
+        <v>63</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B8" s="7">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c t="s" r="H8" s="8">
+        <v>14</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <v>12</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c t="s" r="B9" s="7">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c t="s" r="H9" s="8">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <v>186</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c t="s" r="F6" s="12">
+      <c t="s" r="B10" s="7">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
         <v>8</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c t="s" r="I6" s="14">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>136.5</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="B11" s="7">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c t="s" r="H11" s="8">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <v>68.25</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c t="s" r="B12" s="7">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c t="s" r="H12" s="8">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9">
+        <v>18</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" customHeight="1">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c t="s" r="B13" s="7">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c t="s" r="H13" s="8">
+        <v>21</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9">
+        <v>14.1</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c t="s" r="B14" s="7">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c t="s" r="H14" s="8">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9">
+        <v>175</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>25</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c t="s" r="B17" s="7">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c t="s" r="H17" s="8">
+        <v>28</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="K18" s="11">
+        <v>1131.3499999999999</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" ht="17.25" customHeight="1">
+      <c t="s" r="A19" s="12">
+        <v>29</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c t="s" r="F19" s="13">
+        <v>30</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c t="s" r="I19" s="15">
+        <v>31</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="53">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -667,10 +1084,49 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:N19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_09-57.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_09-57.xlsx
@@ -30,72 +30,6 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
-  </si>
-  <si>
-    <t>ANGIOFOX (EFFOX) 25MG LONG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>PERLOC 40MG 14 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>7816:0</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>مرطب شفاه لونا جوز هند ابيض</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>Monday, 5 January, 2026 9:57 AM</t>
@@ -280,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -300,17 +234,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -680,400 +611,52 @@
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c t="s" r="B4" s="7">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c t="s" r="H4" s="8">
-        <v>8</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="9">
-        <v>114</v>
-      </c>
+      <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c t="s" r="B5" s="7">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1">
+      <c t="s" r="A6" s="11">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c t="s" r="F6" s="12">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c t="s" r="I6" s="14">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c t="s" r="H5" s="8">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9">
-        <v>137</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="24.75" customHeight="1">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c t="s" r="B6" s="7">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c t="s" r="H6" s="8">
-        <v>8</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9">
-        <v>160</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5" customHeight="1">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c t="s" r="B7" s="7">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c t="s" r="H7" s="8">
-        <v>8</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9">
-        <v>63</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c t="s" r="B8" s="7">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c t="s" r="H8" s="8">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9">
-        <v>12</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10">
-        <v>0.040000000000000001</v>
-      </c>
-    </row>
-    <row r="9" ht="24.75" customHeight="1">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c t="s" r="B9" s="7">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c t="s" r="H9" s="8">
-        <v>8</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9">
-        <v>186</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c t="s" r="B10" s="7">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c t="s" r="H10" s="8">
-        <v>8</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9">
-        <v>136.5</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="24.75" customHeight="1">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c t="s" r="B11" s="7">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c t="s" r="H11" s="8">
-        <v>8</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9">
-        <v>68.25</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c t="s" r="B12" s="7">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c t="s" r="H12" s="8">
-        <v>19</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9">
-        <v>18</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c t="s" r="B13" s="7">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c t="s" r="H13" s="8">
-        <v>21</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9">
-        <v>14.1</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10">
-        <v>0.10000000000000001</v>
-      </c>
-    </row>
-    <row r="14" ht="24.75" customHeight="1">
-      <c r="A14" s="6">
-        <v>11</v>
-      </c>
-      <c t="s" r="B14" s="7">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c t="s" r="H14" s="8">
-        <v>19</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9">
-        <v>175</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5" customHeight="1">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c t="s" r="B15" s="7">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c t="s" r="H15" s="8">
-        <v>24</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="24.75" customHeight="1">
-      <c r="A16" s="6">
-        <v>13</v>
-      </c>
-      <c t="s" r="B16" s="7">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c t="s" r="H16" s="8">
-        <v>26</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9">
-        <v>25</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" s="6">
-        <v>14</v>
-      </c>
-      <c t="s" r="B17" s="7">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c t="s" r="H17" s="8">
-        <v>28</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9">
-        <v>20</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="K18" s="11">
-        <v>1131.3499999999999</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c t="s" r="A19" s="12">
-        <v>29</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c t="s" r="F19" s="13">
-        <v>30</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c t="s" r="I19" s="15">
-        <v>31</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="14">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1084,49 +667,10 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:N6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
